--- a/analysis/data/worksheet_combine.xlsx
+++ b/analysis/data/worksheet_combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Activity_Data\Mancala_github\MancalaGames\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A7C1C1-C1B3-41FB-AA7A-04CFA176ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8505610-E253-4BA8-8462-05BACE73356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26415" yWindow="525" windowWidth="25410" windowHeight="10785" xr2:uid="{9656757A-5440-4F99-A97B-B1C6A0885C28}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="25410" windowHeight="14265" xr2:uid="{9656757A-5440-4F99-A97B-B1C6A0885C28}"/>
   </bookViews>
   <sheets>
     <sheet name="combine 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>LOOPED</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>copy</t>
-  </si>
-  <si>
-    <t>Depouiller</t>
-  </si>
-  <si>
-    <t>Lstart5rnds</t>
   </si>
 </sst>
 </file>
@@ -212,16 +206,74 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -250,64 +302,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -318,11 +312,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -344,6 +338,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -380,6 +384,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -390,32 +414,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -436,26 +434,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -466,6 +444,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -476,26 +474,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -506,11 +484,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,7 +1010,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3 O3:Q3 X3:Y3 AA3:AB3"/>
+      <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,27 +1174,27 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>28623</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>41183</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>41327</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>SUM(I5:I9)</f>
-        <v>28762</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>SUM(B3:C3)</f>
@@ -1214,161 +1202,89 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3" si="1">SUM(K5:K9)</f>
-        <v>1166</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f>SUM(H3:I3)</f>
-        <v>70089</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f>SUM(F3,I3)</f>
-        <v>57385</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f>SUM(F3:I3)</f>
-        <v>139895</v>
-      </c>
-      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="e">
         <f>R3/N3</f>
-        <v>0.50101147289038206</v>
-      </c>
-      <c r="P3" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="2" t="e">
         <f>T3/N3</f>
-        <v>0.41020050752349979</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="2" t="e">
         <f>SUM(D3:E3)/SUM(B3:I3)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3" si="2">L3</f>
-        <v>70089</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f>N3-R3</f>
-        <v>69806</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3" si="3">M3</f>
-        <v>57385</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f>N3-T3</f>
-        <v>82510</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f>N3/2</f>
-        <v>69947.5</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>V3</f>
-        <v>69947.5</v>
-      </c>
-      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="e">
         <f>_xlfn.CHISQ.TEST(R3:S3,V3:W3)</f>
-        <v>0.44926970202151489</v>
-      </c>
-      <c r="Y3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y3" t="e">
         <f>_xlfn.CHISQ.TEST(T3:U3,V3:W3)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" t="e">
         <f>X3 &gt;$Z$2</f>
-        <v>1</v>
-      </c>
-      <c r="AB3" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" t="e">
         <f>Y3 &gt;$Z$2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD3">
         <f>SUM(B3:I3)</f>
-        <v>140000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8">
-        <v>8123</v>
-      </c>
-      <c r="G5" s="8">
-        <v>11714</v>
-      </c>
-      <c r="H5" s="8">
-        <v>11865</v>
-      </c>
-      <c r="I5" s="8">
-        <v>8269</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>344</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
       <c r="AD5">
         <f>SUM(B5:I5)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>20500</v>
-      </c>
-      <c r="G6">
-        <v>29469</v>
-      </c>
-      <c r="H6">
-        <v>29462</v>
-      </c>
-      <c r="I6">
-        <v>20493</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>822</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
       <c r="AD6">
         <f t="shared" ref="AD6:AD9" si="4">SUM(B6:I6)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1403,6 +1319,14 @@
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C6">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+      <formula>5000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
     <cfRule type="cellIs" dxfId="40" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
@@ -1431,16 +1355,6 @@
   <conditionalFormatting sqref="AA3:AB3">
     <cfRule type="cellIs" dxfId="33" priority="139" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>5000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,7 +1369,7 @@
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3 O3:Q3 X3:Y3 AA3:AB3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1525,7 @@
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>SUM(B5:B9)</f>
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E3" si="0">SUM(C5:C9)</f>
@@ -1627,23 +1541,23 @@
       </c>
       <c r="F3">
         <f>SUM(F5:F9)</f>
-        <v>49808</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f>SUM(G5:G9)</f>
-        <v>51143</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>SUM(H5:H9)</f>
-        <v>50100</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>SUM(I5:I9)</f>
-        <v>48780</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>SUM(B3:C3)</f>
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3" si="1">SUM(K5:K9)</f>
@@ -1651,112 +1565,85 @@
       </c>
       <c r="L3">
         <f>SUM(H3:I3)</f>
-        <v>98880</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f>SUM(F3,I3)</f>
-        <v>98588</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f>SUM(F3:I3)</f>
-        <v>199831</v>
-      </c>
-      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="e">
         <f>R3/N3</f>
-        <v>0.49481812131250907</v>
-      </c>
-      <c r="P3" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="2" t="e">
         <f>T3/N3</f>
-        <v>0.49335688656915094</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="2" t="e">
         <f>SUM(D3:E3)/SUM(B3:I3)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3" si="2">L3</f>
-        <v>98880</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f>N3-R3</f>
-        <v>100951</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3" si="3">M3</f>
-        <v>98588</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f>N3-T3</f>
-        <v>101243</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f>N3/2</f>
-        <v>99915.5</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>V3</f>
-        <v>99915.5</v>
-      </c>
-      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="e">
         <f>_xlfn.CHISQ.TEST(R3:S3,V3:W3)</f>
-        <v>3.6065789082257458E-6</v>
-      </c>
-      <c r="Y3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y3" t="e">
         <f>_xlfn.CHISQ.TEST(T3:U3,V3:W3)</f>
-        <v>2.8629340680418355E-9</v>
-      </c>
-      <c r="AA3" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" t="e">
         <f>X3 &gt;$Z$2</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" t="e">
         <f>Y3 &gt;$Z$2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD3">
         <f>SUM(B3:I3)</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>9996</v>
-      </c>
-      <c r="G5">
-        <v>10165</v>
-      </c>
-      <c r="H5">
-        <v>9990</v>
-      </c>
-      <c r="I5">
-        <v>9817</v>
-      </c>
-      <c r="J5">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="R5">
         <v>8.7139387052759004E-2</v>
       </c>
@@ -1768,69 +1655,31 @@
       </c>
       <c r="AD5">
         <f>SUM(B5:I5)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6">
-        <v>92</v>
-      </c>
-      <c r="F6">
-        <v>24743</v>
-      </c>
-      <c r="G6">
-        <v>25498</v>
-      </c>
-      <c r="H6">
-        <v>25199</v>
-      </c>
-      <c r="I6">
-        <v>24468</v>
-      </c>
-      <c r="J6">
-        <v>92</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="AD6">
         <f>SUM(B6:I6)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>15069</v>
-      </c>
-      <c r="G7">
-        <v>15480</v>
-      </c>
-      <c r="H7">
-        <v>14911</v>
-      </c>
-      <c r="I7">
-        <v>14495</v>
-      </c>
-      <c r="J7">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="AD7">
         <f t="shared" ref="AD7:AD9" si="4">SUM(B7:I7)</f>
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1964,6 +1813,16 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
+      <c r="P22" s="8"/>
+      <c r="R22">
+        <v>4.8825898827741E-2</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
       <c r="AD22">
         <f>SUM(B22:I22)</f>
         <v>0</v>
@@ -1978,6 +1837,16 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="AD24">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1999,127 +1868,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
+  <conditionalFormatting sqref="B5:C7">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="39" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:P20">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="greaterThan">
+      <formula>0.52</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0.48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="28" stopIfTrue="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0.48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
-      <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="35" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="greaterThan">
-      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:T5">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Y3">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
+      <formula>0.001</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20:Y20">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
-      <formula>0.001</formula>
-      <formula>0.05</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AB3">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:AB20">
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analysis/data/worksheet_combine.xlsx
+++ b/analysis/data/worksheet_combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Activity_Data\Mancala_github\MancalaGames\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8505610-E253-4BA8-8462-05BACE73356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17867669-B8ED-4840-8472-CBCD37362A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="25410" windowHeight="14265" xr2:uid="{9656757A-5440-4F99-A97B-B1C6A0885C28}"/>
+    <workbookView xWindow="31140" yWindow="1935" windowWidth="25410" windowHeight="14265" xr2:uid="{9656757A-5440-4F99-A97B-B1C6A0885C28}"/>
   </bookViews>
   <sheets>
     <sheet name="combine 1" sheetId="1" r:id="rId1"/>
@@ -215,24 +215,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
         </patternFill>
       </fill>
     </dxf>
@@ -254,23 +261,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -312,11 +302,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -338,16 +348,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -384,26 +384,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -424,6 +404,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -559,6 +559,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1009,8 +1023,8 @@
   </sheetPr>
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,45 +1329,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="43" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="140" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C6">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="cellIs" dxfId="40" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="132" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="134" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="136" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="36" priority="128" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="130" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="129" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="131" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="132" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X3:Y3">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="between">
+      <formula>0.05</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AB3">
-    <cfRule type="cellIs" dxfId="33" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="141" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1369,7 +1393,7 @@
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,17 +1945,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:P20">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="28" stopIfTrue="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0.48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="greaterThan">
       <formula>0.52</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0.48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" stopIfTrue="1" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
@@ -1946,25 +1970,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="greaterThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="33" operator="greaterThan">
-      <formula>0.4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="35" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="26" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="greaterThan">
       <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:T5">
@@ -1973,23 +1997,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Y3">
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="between">
+      <formula>0.05</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20:Y20">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="between">
-      <formula>0.05</formula>
-      <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AB3">
